--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Crlf1-Cntfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Crlf1-Cntfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,16 @@
     <t>MuSCs</t>
   </si>
   <si>
-    <t>Neutrophils</t>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Crlf1</t>
   </si>
   <si>
     <t>Cntfr</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -537,16 +540,16 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.3097005</v>
+        <v>0.4287225</v>
       </c>
       <c r="H2">
-        <v>0.619401</v>
+        <v>0.857445</v>
       </c>
       <c r="I2">
-        <v>0.02974992333587455</v>
+        <v>0.04766385615009357</v>
       </c>
       <c r="J2">
-        <v>0.02626282361701589</v>
+        <v>0.04112453143803989</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +558,28 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.057665</v>
+        <v>0.08210149999999999</v>
       </c>
       <c r="N2">
-        <v>0.11533</v>
+        <v>0.164203</v>
       </c>
       <c r="O2">
-        <v>0.01620051839411325</v>
+        <v>0.01959206455542894</v>
       </c>
       <c r="P2">
-        <v>0.01129612699459945</v>
+        <v>0.0143098977453608</v>
       </c>
       <c r="Q2">
-        <v>0.0178588793325</v>
+        <v>0.03519876033375</v>
       </c>
       <c r="R2">
-        <v>0.07143551733</v>
+        <v>0.140795041335</v>
       </c>
       <c r="S2">
-        <v>0.0004819641802262948</v>
+        <v>0.000933833346653312</v>
       </c>
       <c r="T2">
-        <v>0.000296668190814577</v>
+        <v>0.0005884878397042266</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +602,16 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.3097005</v>
+        <v>0.4287225</v>
       </c>
       <c r="H3">
-        <v>0.619401</v>
+        <v>0.857445</v>
       </c>
       <c r="I3">
-        <v>0.02974992333587455</v>
+        <v>0.04766385615009357</v>
       </c>
       <c r="J3">
-        <v>0.02626282361701589</v>
+        <v>0.04112453143803989</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +626,22 @@
         <v>9.243680000000001</v>
       </c>
       <c r="O3">
-        <v>0.8656458734026811</v>
+        <v>0.7352800102707316</v>
       </c>
       <c r="P3">
-        <v>0.9053826686676408</v>
+        <v>0.8055645487039627</v>
       </c>
       <c r="Q3">
-        <v>0.9542574392800002</v>
+        <v>1.3209911996</v>
       </c>
       <c r="R3">
-        <v>5.72554463568</v>
+        <v>7.925947197600001</v>
       </c>
       <c r="S3">
-        <v>0.02575289836974593</v>
+        <v>0.03504628063958348</v>
       </c>
       <c r="T3">
-        <v>0.02377790533312139</v>
+        <v>0.03312846460854653</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +655,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,46 +664,46 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.3097005</v>
+        <v>0.4287225</v>
       </c>
       <c r="H4">
-        <v>0.619401</v>
+        <v>0.857445</v>
       </c>
       <c r="I4">
-        <v>0.02974992333587455</v>
+        <v>0.04766385615009357</v>
       </c>
       <c r="J4">
-        <v>0.02626282361701589</v>
+        <v>0.04112453143803989</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.411003</v>
+        <v>0.012461</v>
       </c>
       <c r="N4">
-        <v>0.822006</v>
+        <v>0.037383</v>
       </c>
       <c r="O4">
-        <v>0.1154679903153686</v>
+        <v>0.002973596297573126</v>
       </c>
       <c r="P4">
-        <v>0.08051230526595606</v>
+        <v>0.003257838817895063</v>
       </c>
       <c r="Q4">
-        <v>0.1272878346015</v>
+        <v>0.0053423110725</v>
       </c>
       <c r="R4">
-        <v>0.509151338406</v>
+        <v>0.032053866435</v>
       </c>
       <c r="S4">
-        <v>0.00343516385962972</v>
+        <v>0.0001417330661759763</v>
       </c>
       <c r="T4">
-        <v>0.002114480472199143</v>
+        <v>0.0001339770948865922</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +717,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,46 +726,46 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.3097005</v>
+        <v>0.4287225</v>
       </c>
       <c r="H5">
-        <v>0.619401</v>
+        <v>0.857445</v>
       </c>
       <c r="I5">
-        <v>0.02974992333587455</v>
+        <v>0.04766385615009357</v>
       </c>
       <c r="J5">
-        <v>0.02626282361701589</v>
+        <v>0.04112453143803989</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.009559333333333333</v>
+        <v>1.0147595</v>
       </c>
       <c r="N5">
-        <v>0.028678</v>
+        <v>2.029519</v>
       </c>
       <c r="O5">
-        <v>0.002685617887837104</v>
+        <v>0.2421543288762665</v>
       </c>
       <c r="P5">
-        <v>0.002808899071803719</v>
+        <v>0.1768677147327815</v>
       </c>
       <c r="Q5">
-        <v>0.002960530313</v>
+        <v>0.4350502297387499</v>
       </c>
       <c r="R5">
-        <v>0.017763181878</v>
+        <v>1.740200918955</v>
       </c>
       <c r="S5">
-        <v>7.989692627260718E-05</v>
+        <v>0.01154200909768081</v>
       </c>
       <c r="T5">
-        <v>7.376962088078071E-05</v>
+        <v>0.007273601894902543</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +794,10 @@
         <v>8.176179000000001</v>
       </c>
       <c r="I6">
-        <v>0.2618020726803126</v>
+        <v>0.3029995857564555</v>
       </c>
       <c r="J6">
-        <v>0.346672909695253</v>
+        <v>0.3921435547802385</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +806,28 @@
         <v>0.5</v>
       </c>
       <c r="M6">
-        <v>0.057665</v>
+        <v>0.08210149999999999</v>
       </c>
       <c r="N6">
-        <v>0.11533</v>
+        <v>0.164203</v>
       </c>
       <c r="O6">
-        <v>0.01620051839411325</v>
+        <v>0.01959206455542894</v>
       </c>
       <c r="P6">
-        <v>0.01129612699459945</v>
+        <v>0.0143098977453608</v>
       </c>
       <c r="Q6">
-        <v>0.157159787345</v>
+        <v>0.2237588533895</v>
       </c>
       <c r="R6">
-        <v>0.9429587240700001</v>
+        <v>1.342553120337</v>
       </c>
       <c r="S6">
-        <v>0.00424132929407438</v>
+        <v>0.005936387444408702</v>
       </c>
       <c r="T6">
-        <v>0.003916061213504883</v>
+        <v>0.005611534170407506</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +856,10 @@
         <v>8.176179000000001</v>
       </c>
       <c r="I7">
-        <v>0.2618020726803126</v>
+        <v>0.3029995857564555</v>
       </c>
       <c r="J7">
-        <v>0.346672909695253</v>
+        <v>0.3921435547802385</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +874,10 @@
         <v>9.243680000000001</v>
       </c>
       <c r="O7">
-        <v>0.8656458734026811</v>
+        <v>0.7352800102707316</v>
       </c>
       <c r="P7">
-        <v>0.9053826686676408</v>
+        <v>0.8055645487039627</v>
       </c>
       <c r="Q7">
         <v>8.397553588746669</v>
@@ -883,10 +886,10 @@
         <v>75.57798229872002</v>
       </c>
       <c r="S7">
-        <v>0.2266278838639814</v>
+        <v>0.222789538527034</v>
       </c>
       <c r="T7">
-        <v>0.3138716441346642</v>
+        <v>0.3158969457337105</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +903,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,40 +918,40 @@
         <v>8.176179000000001</v>
       </c>
       <c r="I8">
-        <v>0.2618020726803126</v>
+        <v>0.3029995857564555</v>
       </c>
       <c r="J8">
-        <v>0.346672909695253</v>
+        <v>0.3921435547802385</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.411003</v>
+        <v>0.012461</v>
       </c>
       <c r="N8">
-        <v>0.822006</v>
+        <v>0.037383</v>
       </c>
       <c r="O8">
-        <v>0.1154679903153686</v>
+        <v>0.002973596297573126</v>
       </c>
       <c r="P8">
-        <v>0.08051230526595606</v>
+        <v>0.003257838817895063</v>
       </c>
       <c r="Q8">
-        <v>1.120144699179</v>
+        <v>0.03396112217300001</v>
       </c>
       <c r="R8">
-        <v>6.720868195074001</v>
+        <v>0.3056500995570001</v>
       </c>
       <c r="S8">
-        <v>0.03022975919279376</v>
+        <v>0.0009009984463715869</v>
       </c>
       <c r="T8">
-        <v>0.02791143513282143</v>
+        <v>0.00127754049495042</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,7 +965,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,40 +980,40 @@
         <v>8.176179000000001</v>
       </c>
       <c r="I9">
-        <v>0.2618020726803126</v>
+        <v>0.3029995857564555</v>
       </c>
       <c r="J9">
-        <v>0.346672909695253</v>
+        <v>0.3921435547802385</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.009559333333333333</v>
+        <v>1.0147595</v>
       </c>
       <c r="N9">
-        <v>0.028678</v>
+        <v>2.029519</v>
       </c>
       <c r="O9">
-        <v>0.002685617887837104</v>
+        <v>0.2421543288762665</v>
       </c>
       <c r="P9">
-        <v>0.002808899071803719</v>
+        <v>0.1768677147327815</v>
       </c>
       <c r="Q9">
-        <v>0.02605294015133333</v>
+        <v>2.7656184379835</v>
       </c>
       <c r="R9">
-        <v>0.234476461362</v>
+        <v>16.593710627901</v>
       </c>
       <c r="S9">
-        <v>0.0007031003294630773</v>
+        <v>0.07337266133864122</v>
       </c>
       <c r="T9">
-        <v>0.0009737692142624907</v>
+        <v>0.06935753438117009</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.3359755</v>
+        <v>5.7054395</v>
       </c>
       <c r="H10">
-        <v>14.671951</v>
+        <v>11.410879</v>
       </c>
       <c r="I10">
-        <v>0.7046960166963049</v>
+        <v>0.6343106498983883</v>
       </c>
       <c r="J10">
-        <v>0.6220959624387108</v>
+        <v>0.5472853094614456</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1051,28 +1054,28 @@
         <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.057665</v>
+        <v>0.08210149999999999</v>
       </c>
       <c r="N10">
-        <v>0.11533</v>
+        <v>0.164203</v>
       </c>
       <c r="O10">
-        <v>0.01620051839411325</v>
+        <v>0.01959206455542894</v>
       </c>
       <c r="P10">
-        <v>0.01129612699459945</v>
+        <v>0.0143098977453608</v>
       </c>
       <c r="Q10">
-        <v>0.4230290272075</v>
+        <v>0.4684251411092499</v>
       </c>
       <c r="R10">
-        <v>1.69211610883</v>
+        <v>1.873700564437</v>
       </c>
       <c r="S10">
-        <v>0.01141644078074683</v>
+        <v>0.01242745520100531</v>
       </c>
       <c r="T10">
-        <v>0.007027274994535244</v>
+        <v>0.00783159681593143</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.3359755</v>
+        <v>5.7054395</v>
       </c>
       <c r="H11">
-        <v>14.671951</v>
+        <v>11.410879</v>
       </c>
       <c r="I11">
-        <v>0.7046960166963049</v>
+        <v>0.6343106498983883</v>
       </c>
       <c r="J11">
-        <v>0.6220959624387108</v>
+        <v>0.5472853094614456</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1122,22 @@
         <v>9.243680000000001</v>
       </c>
       <c r="O11">
-        <v>0.8656458734026811</v>
+        <v>0.7352800102707316</v>
       </c>
       <c r="P11">
-        <v>0.9053826686676408</v>
+        <v>0.8055645487039627</v>
       </c>
       <c r="Q11">
-        <v>22.60380333661334</v>
+        <v>17.57975233245334</v>
       </c>
       <c r="R11">
-        <v>135.62282001968</v>
+        <v>105.47851399472</v>
       </c>
       <c r="S11">
-        <v>0.6100171988564631</v>
+        <v>0.4663959411721214</v>
       </c>
       <c r="T11">
-        <v>0.5632349026401244</v>
+        <v>0.4408736433286179</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,7 +1151,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1157,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.3359755</v>
+        <v>5.7054395</v>
       </c>
       <c r="H12">
-        <v>14.671951</v>
+        <v>11.410879</v>
       </c>
       <c r="I12">
-        <v>0.7046960166963049</v>
+        <v>0.6343106498983883</v>
       </c>
       <c r="J12">
-        <v>0.6220959624387108</v>
+        <v>0.5472853094614456</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.411003</v>
+        <v>0.012461</v>
       </c>
       <c r="N12">
-        <v>0.822006</v>
+        <v>0.037383</v>
       </c>
       <c r="O12">
-        <v>0.1154679903153686</v>
+        <v>0.002973596297573126</v>
       </c>
       <c r="P12">
-        <v>0.08051230526595606</v>
+        <v>0.003257838817895063</v>
       </c>
       <c r="Q12">
-        <v>3.0151079384265</v>
+        <v>0.07109548160949999</v>
       </c>
       <c r="R12">
-        <v>12.060431753706</v>
+        <v>0.426572889657</v>
       </c>
       <c r="S12">
-        <v>0.08136983283116773</v>
+        <v>0.001886183800049051</v>
       </c>
       <c r="T12">
-        <v>0.05008638003258421</v>
+        <v>0.00178296732562721</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,7 +1213,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1219,46 +1222,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.3359755</v>
+        <v>5.7054395</v>
       </c>
       <c r="H13">
-        <v>14.671951</v>
+        <v>11.410879</v>
       </c>
       <c r="I13">
-        <v>0.7046960166963049</v>
+        <v>0.6343106498983883</v>
       </c>
       <c r="J13">
-        <v>0.6220959624387108</v>
+        <v>0.5472853094614456</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.009559333333333333</v>
+        <v>1.0147595</v>
       </c>
       <c r="N13">
-        <v>0.028678</v>
+        <v>2.029519</v>
       </c>
       <c r="O13">
-        <v>0.002685617887837104</v>
+        <v>0.2421543288762665</v>
       </c>
       <c r="P13">
-        <v>0.002808899071803719</v>
+        <v>0.1768677147327815</v>
       </c>
       <c r="Q13">
-        <v>0.07012703512966666</v>
+        <v>5.789648934300248</v>
       </c>
       <c r="R13">
-        <v>0.420762210778</v>
+        <v>23.15859573720099</v>
       </c>
       <c r="S13">
-        <v>0.001892544227927151</v>
+        <v>0.1536010697252126</v>
       </c>
       <c r="T13">
-        <v>0.001747404771466936</v>
+        <v>0.09679710199126898</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1284,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.03905866666666667</v>
+        <v>0.1351536666666667</v>
       </c>
       <c r="H14">
-        <v>0.117176</v>
+        <v>0.405461</v>
       </c>
       <c r="I14">
-        <v>0.003751987287507809</v>
+        <v>0.01502590819506253</v>
       </c>
       <c r="J14">
-        <v>0.00496830424902035</v>
+        <v>0.01944660432027604</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1299,28 +1302,28 @@
         <v>0.5</v>
       </c>
       <c r="M14">
-        <v>0.057665</v>
+        <v>0.08210149999999999</v>
       </c>
       <c r="N14">
-        <v>0.11533</v>
+        <v>0.164203</v>
       </c>
       <c r="O14">
-        <v>0.01620051839411325</v>
+        <v>0.01959206455542894</v>
       </c>
       <c r="P14">
-        <v>0.01129612699459945</v>
+        <v>0.0143098977453608</v>
       </c>
       <c r="Q14">
-        <v>0.002252318013333333</v>
+        <v>0.01109631876383333</v>
       </c>
       <c r="R14">
-        <v>0.01351390808</v>
+        <v>0.066577912583</v>
       </c>
       <c r="S14">
-        <v>6.078413906574935E-05</v>
+        <v>0.0002943885633616138</v>
       </c>
       <c r="T14">
-        <v>5.61225957447419E-05</v>
+        <v>0.0002782789193176418</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1346,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.03905866666666667</v>
+        <v>0.1351536666666667</v>
       </c>
       <c r="H15">
-        <v>0.117176</v>
+        <v>0.405461</v>
       </c>
       <c r="I15">
-        <v>0.003751987287507809</v>
+        <v>0.01502590819506253</v>
       </c>
       <c r="J15">
-        <v>0.00496830424902035</v>
+        <v>0.01944660432027604</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1370,22 @@
         <v>9.243680000000001</v>
       </c>
       <c r="O15">
-        <v>0.8656458734026811</v>
+        <v>0.7352800102707316</v>
       </c>
       <c r="P15">
-        <v>0.9053826686676408</v>
+        <v>0.8055645487039627</v>
       </c>
       <c r="Q15">
-        <v>0.1203486052977778</v>
+        <v>0.4164390818311112</v>
       </c>
       <c r="R15">
-        <v>1.08313744768</v>
+        <v>3.747951736480001</v>
       </c>
       <c r="S15">
-        <v>0.003247892312490453</v>
+        <v>0.01104824993199265</v>
       </c>
       <c r="T15">
-        <v>0.004498216559730824</v>
+        <v>0.0156654950330877</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,7 +1399,7 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1405,46 +1408,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.03905866666666667</v>
+        <v>0.1351536666666667</v>
       </c>
       <c r="H16">
-        <v>0.117176</v>
+        <v>0.405461</v>
       </c>
       <c r="I16">
-        <v>0.003751987287507809</v>
+        <v>0.01502590819506253</v>
       </c>
       <c r="J16">
-        <v>0.00496830424902035</v>
+        <v>0.01944660432027604</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.411003</v>
+        <v>0.012461</v>
       </c>
       <c r="N16">
-        <v>0.822006</v>
+        <v>0.037383</v>
       </c>
       <c r="O16">
-        <v>0.1154679903153686</v>
+        <v>0.002973596297573126</v>
       </c>
       <c r="P16">
-        <v>0.08051230526595606</v>
+        <v>0.003257838817895063</v>
       </c>
       <c r="Q16">
-        <v>0.016053229176</v>
+        <v>0.001684149840333333</v>
       </c>
       <c r="R16">
-        <v>0.09631937505600001</v>
+        <v>0.015157348563</v>
       </c>
       <c r="S16">
-        <v>0.0004332344317773377</v>
+        <v>4.468098497651164E-05</v>
       </c>
       <c r="T16">
-        <v>0.000400009628351273</v>
+        <v>6.335390243084113E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,7 +1461,7 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1467,46 +1470,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.03905866666666667</v>
+        <v>0.1351536666666667</v>
       </c>
       <c r="H17">
-        <v>0.117176</v>
+        <v>0.405461</v>
       </c>
       <c r="I17">
-        <v>0.003751987287507809</v>
+        <v>0.01502590819506253</v>
       </c>
       <c r="J17">
-        <v>0.00496830424902035</v>
+        <v>0.01944660432027604</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.009559333333333333</v>
+        <v>1.0147595</v>
       </c>
       <c r="N17">
-        <v>0.028678</v>
+        <v>2.029519</v>
       </c>
       <c r="O17">
-        <v>0.002685617887837104</v>
+        <v>0.2421543288762665</v>
       </c>
       <c r="P17">
-        <v>0.002808899071803719</v>
+        <v>0.1768677147327815</v>
       </c>
       <c r="Q17">
-        <v>0.0003733748142222222</v>
+        <v>0.1371484672098333</v>
       </c>
       <c r="R17">
-        <v>0.003360373328</v>
+        <v>0.8228908032589999</v>
       </c>
       <c r="S17">
-        <v>1.007640417426839E-05</v>
+        <v>0.00363858871473176</v>
       </c>
       <c r="T17">
-        <v>1.395546519351173E-05</v>
+        <v>0.003439476465439859</v>
       </c>
     </row>
   </sheetData>
